--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44330,6 +44330,43 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44367,6 +44367,43 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44404,6 +44404,43 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44441,6 +44441,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44478,6 +44478,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44515,6 +44515,41 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44550,6 +44550,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44585,6 +44585,80 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44659,6 +44659,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44696,6 +44696,41 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44731,6 +44731,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44768,6 +44768,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1521"/>
+  <dimension ref="A1:I1522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55725,6 +55725,43 @@
         </is>
       </c>
     </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1522" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1522" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1522"/>
+  <dimension ref="A1:I1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55762,6 +55762,43 @@
         </is>
       </c>
     </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1523" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1523" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1523"/>
+  <dimension ref="A1:I1524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55799,6 +55799,43 @@
         </is>
       </c>
     </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1524" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1524" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1524"/>
+  <dimension ref="A1:I1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55836,6 +55836,43 @@
         </is>
       </c>
     </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1525" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1525" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9431.xlsx
+++ b/data/9431.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1525"/>
+  <dimension ref="A1:I1526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55873,6 +55873,43 @@
         </is>
       </c>
     </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="E1526" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1526" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
